--- a/Data/ScriptData/Template_ArchitectDataFile.xlsx
+++ b/Data/ScriptData/Template_ArchitectDataFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Diagram_Creator\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Workspace\winApps\OmnicellBlueprintingTool\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2A472A-1C00-4D94-A5CC-5B7CF7C375D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102EDEB5-11D6-425D-A8A7-4634EBE25B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="2775" windowWidth="30075" windowHeight="14250" xr2:uid="{F7C08203-2112-4032-A78B-91DB85A7B88A}"/>
+    <workbookView xWindow="3570" yWindow="900" windowWidth="27375" windowHeight="14250" xr2:uid="{F7C08203-2112-4032-A78B-91DB85A7B88A}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>mach_name</t>
   </si>
@@ -534,28 +534,22 @@
     <t>Using a Visio Template that contains a custom Stencil</t>
   </si>
   <si>
-    <t>Using a Visio Template that does not contain a custom stencil</t>
-  </si>
-  <si>
     <t>Custom Stencil for OmniCell Architech Visio Diagram</t>
   </si>
   <si>
     <t>Custom Stencil</t>
   </si>
   <si>
-    <t>C:\Omnicell_Diagram_Creator\Data\Templates\OC_ArchitectDiagramTemplate.vstx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Diagram_Creator\DataTemplates\OC_ArchitectDiagramTemplateNoStencil.vstx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Diagram_Creator\Data\Stencils\OC_ArchitectStencils.vssx</t>
-  </si>
-  <si>
-    <t>C:\Omnicell_Diagram_Creator\Data\Stencils\Advocate_CustomStencils.vssx</t>
-  </si>
-  <si>
     <t>start with a blank Visio diagram with no stencils attached</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Templates\OC_BlueprintingTemplate.vstx</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\OC_BlueprintingStencils.vssx</t>
+  </si>
+  <si>
+    <t>C:\Omnicell_Blueprinting_Tool\Data\Stencils\Advocate_CustomStencils.vssx</t>
   </si>
 </sst>
 </file>
@@ -826,6 +820,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -837,10 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6B3580-88F6-4152-BCD8-7BDA3AA42961}">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,19 +1374,17 @@
       </c>
       <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>101</v>
-      </c>
+      <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1438,17 +1430,19 @@
       </c>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:32" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
-        <v>104</v>
+    <row r="5" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
+        <v>0</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1494,18 +1488,18 @@
       </c>
       <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:32" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>0</v>
-      </c>
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>0</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="s">
         <v>98</v>
       </c>
       <c r="F6" s="8"/>
@@ -1552,101 +1546,101 @@
       </c>
       <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:32" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>0</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="10">
-        <v>0</v>
-      </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="11">
+    <row r="7" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+    </row>
+    <row r="8" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="S8" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="11">
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="11">
         <v>1</v>
       </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AE8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="7"/>
-    </row>
-    <row r="8" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-    </row>
-    <row r="9" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF8" s="7"/>
+    </row>
+    <row r="9" spans="1:32" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -1654,12 +1648,14 @@
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1673,7 +1669,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="10">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="S9" s="10">
         <v>10.75</v>
@@ -1704,7 +1700,7 @@
       </c>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="12" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1712,15 +1708,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1731,18 +1729,18 @@
       <c r="N10" s="8"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="10">
-        <v>3.125</v>
-      </c>
-      <c r="S10" s="10">
-        <v>10.75</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10">
-        <v>0</v>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1.125</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
@@ -1764,105 +1762,101 @@
       </c>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" s="12" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:32" s="6" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+    </row>
+    <row r="12" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="S12" s="10">
+        <v>10.75</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="8">
-        <v>10</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="S11" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
-        <v>1.125</v>
-      </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="11">
+      <c r="Z12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="11">
         <v>1</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AE12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF11" s="7"/>
-    </row>
-    <row r="12" spans="1:32" s="6" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-    </row>
-    <row r="13" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF12" s="7"/>
+    </row>
+    <row r="13" spans="1:32" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2</v>
       </c>
@@ -1870,12 +1864,14 @@
         <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1889,7 +1885,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="10">
-        <v>0.25</v>
+        <v>3.125</v>
       </c>
       <c r="S13" s="10">
         <v>10.75</v>
@@ -1920,7 +1916,7 @@
       </c>
       <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:32" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" s="12" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -1928,15 +1924,17 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1947,18 +1945,18 @@
       <c r="N14" s="8"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="10">
-        <v>3.125</v>
-      </c>
-      <c r="S14" s="10">
-        <v>10.75</v>
-      </c>
-      <c r="T14" s="10">
-        <v>0</v>
-      </c>
-      <c r="U14" s="10">
-        <v>0</v>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S14" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>1.125</v>
       </c>
       <c r="V14" s="10"/>
       <c r="W14" s="8"/>
@@ -1979,68 +1977,6 @@
         <v>17</v>
       </c>
       <c r="AF14" s="7"/>
-    </row>
-    <row r="15" spans="1:32" s="12" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="8">
-        <v>10</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="S15" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="T15" s="9">
-        <v>0</v>
-      </c>
-      <c r="U15" s="9">
-        <v>1.125</v>
-      </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2053,19 +1989,19 @@
           <x14:formula1>
             <xm:f>Tables!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Z9:Z11 AE9:AE11 Z13:Z15 AE13:AE15</xm:sqref>
+          <xm:sqref>Z8:Z10 AE8:AE10 Z12:Z14 AE12:AE14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{1B1731AA-F2EB-4AE2-A6BB-599908765112}">
           <x14:formula1>
             <xm:f>Tables!$E$2:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F15</xm:sqref>
+          <xm:sqref>F8:F14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{E07EFBB9-D469-4A17-B52C-CFA259DBA49F}">
           <x14:formula1>
             <xm:f>Tables!$A$2:$A$12</xm:f>
           </x14:formula1>
-          <xm:sqref>V9:V15 AA9:AA15 AF9:AF15</xm:sqref>
+          <xm:sqref>V8:V14 AA8:AA14 AF8:AF14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2089,12 +2025,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="31"/>
@@ -2115,12 +2051,12 @@
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -2161,19 +2097,19 @@
       <c r="D8" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
@@ -2259,55 +2195,55 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="28">
         <f>SUM(K12:K14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="46" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="29">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="27">
         <f>SUM(K15:K16)</f>
         <v>150</v>
